--- a/Courses.xlsx
+++ b/Courses.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Excecl Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF81345B-CA90-4B55-841E-71F8C81D608E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF735A2-B03F-461B-B2CE-70B5DB7EE2E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FC0437B-CB22-4865-928A-5196C6094917}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5FC0437B-CB22-4865-928A-5196C6094917}"/>
   </bookViews>
   <sheets>
     <sheet name="edx" sheetId="1" r:id="rId1"/>
+    <sheet name="udacity" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Introduction to Programming in C++</t>
   </si>
@@ -49,13 +50,49 @@
   </si>
   <si>
     <t>https://learning.edx.org/course/course-v1:MITx+6.00.1x+2T2017_2/home</t>
+  </si>
+  <si>
+    <t>https://classroom.udacity.com/courses/ud015</t>
+  </si>
+  <si>
+    <t>OOPS java script</t>
+  </si>
+  <si>
+    <t>https://classroom.udacity.com/courses/ud011</t>
+  </si>
+  <si>
+    <t>Intro to Programming Nanodegree Free Preview</t>
+  </si>
+  <si>
+    <t>https://classroom.udacity.com/courses/ud009</t>
+  </si>
+  <si>
+    <t>Firebase Essentials For Android</t>
+  </si>
+  <si>
+    <t>High Performance Computer Architecture</t>
+  </si>
+  <si>
+    <t>https://classroom.udacity.com/courses/ud007</t>
+  </si>
+  <si>
+    <t>https://classroom.udacity.com/courses/ud006</t>
+  </si>
+  <si>
+    <t>Beginning iOS App Development</t>
+  </si>
+  <si>
+    <t>Mesosphere</t>
+  </si>
+  <si>
+    <t>https://classroom.udacity.com/courses/ud005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +123,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E3D49"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,13 +151,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE769F6-D5DA-4B6A-90EF-B5475BC71E52}">
   <dimension ref="B3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -484,4 +531,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BB9D5F-A8A8-4290-9C98-1460D91FCB97}">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="51.21875" customWidth="1"/>
+    <col min="3" max="3" width="63.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>